--- a/src/main/resources/test1/FillowAPIsheet .xlsx
+++ b/src/main/resources/test1/FillowAPIsheet .xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Learnings\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prabu\git\VinothiniJavaProject\src\main\resources\test1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C35AB0CA-7E85-46F1-AA61-FF6C99B91A66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F6DF416-05C2-4293-BC80-B6249614893E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{39A6AE7F-CF32-4BC7-AAF9-707F5C2CD482}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12240" xr2:uid="{39A6AE7F-CF32-4BC7-AAF9-707F5C2CD482}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -405,7 +405,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
